--- a/biology/Botanique/Érable_à_écorce_de_papier/Érable_à_écorce_de_papier.xlsx
+++ b/biology/Botanique/Érable_à_écorce_de_papier/Érable_à_écorce_de_papier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9corce_de_papier</t>
+          <t>Érable_à_écorce_de_papier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer griseum
 L'érable à écorce de papier (Acer griseum), aussi appelé érable cannelle ou à écorce cannelle, est une espèce d'érable appartenant à la section Trifoliata de la classification des érables.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9corce_de_papier</t>
+          <t>Érable_à_écorce_de_papier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a originellement été décrit en 1894 comme une variété, Acer nikoense var. griseum Franch[1] par Adrien René Franchet, mais Ferdinand Albin Pax l'éleva au rang d'espèce en 1902.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a originellement été décrit en 1894 comme une variété, Acer nikoense var. griseum Franch par Adrien René Franchet, mais Ferdinand Albin Pax l'éleva au rang d'espèce en 1902.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9corce_de_papier</t>
+          <t>Érable_à_écorce_de_papier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de taille moyenne (5 à 10 m), à croissance lente. Le diamètre du tronc peut atteindre 70 cm.
 L'écorce est douce au toucher, d'un rouge orangé brillant. Elle est formée de couches ayant la texture et l'épaisseur du papier et se détache sur le tronc et sur tous les rameaux de deux à trois ans d'âge.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rable_%C3%A0_%C3%A9corce_de_papier</t>
+          <t>Érable_à_écorce_de_papier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet érable est originaire de Chine centrale, où il pousse à des altitudes de 1 500 à 2 000 m[2],[3]. Ernest Henry Wilson l'a introduit en Europe en 1901, et en Amérique du Nord peu après.
-Acer griseum est multiplié principalement par greffe sur l'érable à sucre, car l'espèce souffre de parthénocarpie et seulement 5 % de ses graines sont viables. La diversité génétique des arbres cultivés serait basse ; on a donc essayé récemment d'obtenir de nouvelles graines à partir d'individus sauvages[4]. De plus, la graine étant très dure, la germination peut prendre deux à trois ans.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet érable est originaire de Chine centrale, où il pousse à des altitudes de 1 500 à 2 000 m,. Ernest Henry Wilson l'a introduit en Europe en 1901, et en Amérique du Nord peu après.
+Acer griseum est multiplié principalement par greffe sur l'érable à sucre, car l'espèce souffre de parthénocarpie et seulement 5 % de ses graines sont viables. La diversité génétique des arbres cultivés serait basse ; on a donc essayé récemment d'obtenir de nouvelles graines à partir d'individus sauvages. De plus, la graine étant très dure, la germination peut prendre deux à trois ans.
 Très rustique, Acer griseum peut résister à des gels de l'ordre de −30 °C (Zone USDA 4).
 On le trouve souvent comme arbre d'ornement dans les parcs et les jardins en raison de son écorce exfoliée et brillante, de couleur cannelle, et de son beau feuillage rouge d'automne.
 L'arbre a tendance à pousser en plusieurs troncs, mais on peut le tailler pour lui en laisser un seul.
